--- a/conversion_remapping.xlsx
+++ b/conversion_remapping.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Jupyter Labs\From Scratch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\FAIRification\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE69838-D3BC-48CC-8773-9BF96433C199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="12135"/>
+    <workbookView xWindow="26850" yWindow="5850" windowWidth="21450" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Explanation" sheetId="5" r:id="rId1"/>
@@ -21,7 +22,7 @@
   <externalReferences>
     <externalReference r:id="rId6"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10606" uniqueCount="4106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10617" uniqueCount="4113">
   <si>
     <t>New_Variable</t>
   </si>
@@ -12480,15 +12481,43 @@
   <si>
     <t>Multiplied_VarT = VartT * 10; can also be a fraction.</t>
   </si>
+  <si>
+    <t>id_variable</t>
+  </si>
+  <si>
+    <t>Where the file(s) to be remapped reside</t>
+  </si>
+  <si>
+    <t>Where the converted file should be saved to (incl error logs)</t>
+  </si>
+  <si>
+    <t>Separator to be used</t>
+  </si>
+  <si>
+    <t>Name of the file to be conversted; always add &lt;.csv&gt;</t>
+  </si>
+  <si>
+    <t>Part of the name of the converted file; auto added timestamps and  &lt;*.csv&gt;</t>
+  </si>
+  <si>
+    <t>Used by ListIDs Notebook to list all IDs - the list can be used in Key_Table</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -12708,46 +12737,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12900,67 +12931,67 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A2:D23" totalsRowShown="0" headerRowDxfId="18">
-  <autoFilter ref="A2:D23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A2:D23" totalsRowShown="0" headerRowDxfId="18">
+  <autoFilter ref="A2:D23" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="New_Variable"/>
-    <tableColumn id="2" name="TypeOfConversion"/>
-    <tableColumn id="3" name="Map_Variable"/>
-    <tableColumn id="4" name="Conversion"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="New_Variable"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TypeOfConversion"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Map_Variable"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Conversion"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M1251" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A1:M1251"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A1:M1251" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A1:M1251" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
-    <tableColumn id="11" name="N#" dataDxfId="15"/>
-    <tableColumn id="12" name="N_Instrument" dataDxfId="14"/>
-    <tableColumn id="1" name="New_Variable" dataDxfId="13"/>
-    <tableColumn id="6" name="N_Field_Label" dataDxfId="12"/>
-    <tableColumn id="5" name="N_Field_Type" dataDxfId="11"/>
-    <tableColumn id="7" name="N_Values" dataDxfId="10"/>
-    <tableColumn id="8" name="N_value_Labels" dataDxfId="9"/>
-    <tableColumn id="2" name="TypeOfConversion" dataDxfId="8"/>
-    <tableColumn id="3" name="Map_Variable" dataDxfId="7"/>
-    <tableColumn id="10" name="O_Values"/>
-    <tableColumn id="9" name="O_Value_Labels"/>
-    <tableColumn id="4" name="Conversion" dataDxfId="6"/>
-    <tableColumn id="13" name="Remarks" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="N#" dataDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="N_Instrument" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="New_Variable" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="N_Field_Label" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="N_Field_Type" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="N_Values" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="N_value_Labels" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="TypeOfConversion" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Map_Variable" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="O_Values"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="O_Value_Labels"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Conversion" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Remarks" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:B5" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:B5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="A1:B5" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:B5" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Key_New" dataDxfId="2"/>
-    <tableColumn id="2" name="Key_Old" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Key_New" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Key_Old" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:A13" totalsRowShown="0">
-  <autoFilter ref="A1:A13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table5" displayName="Table5" ref="A1:A13" totalsRowShown="0">
+  <autoFilter ref="A1:A13" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="DropVariables"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DropVariables"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:B7" totalsRowShown="0">
-  <autoFilter ref="A1:B7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table3" displayName="Table3" ref="A1:B8" totalsRowShown="0">
+  <autoFilter ref="A1:B8" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Item"/>
-    <tableColumn id="2" name="Variable"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Item"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Variable"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13262,11 +13293,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13742,10 +13773,10 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G34" t="s">
@@ -13759,6 +13790,9 @@
       <c r="B35" t="s">
         <v>35</v>
       </c>
+      <c r="C35" t="s">
+        <v>4107</v>
+      </c>
       <c r="G35" t="s">
         <v>59</v>
       </c>
@@ -13770,6 +13804,9 @@
       <c r="B36" t="s">
         <v>36</v>
       </c>
+      <c r="C36" t="s">
+        <v>4108</v>
+      </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -13778,6 +13815,9 @@
       <c r="B37" t="s">
         <v>38</v>
       </c>
+      <c r="C37" t="s">
+        <v>4110</v>
+      </c>
     </row>
     <row r="38" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
@@ -13786,6 +13826,9 @@
       <c r="B38" t="s">
         <v>40</v>
       </c>
+      <c r="C38" t="s">
+        <v>4109</v>
+      </c>
       <c r="G38" s="6" t="s">
         <v>64</v>
       </c>
@@ -13796,6 +13839,9 @@
       </c>
       <c r="B39" t="s">
         <v>42</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4111</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>65</v>
@@ -13813,6 +13859,9 @@
       <c r="B40" t="s">
         <v>40</v>
       </c>
+      <c r="C40" s="2" t="s">
+        <v>4109</v>
+      </c>
       <c r="G40" s="8" t="s">
         <v>67</v>
       </c>
@@ -13823,6 +13872,15 @@
       <c r="L40" s="8"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="37" t="s">
+        <v>4106</v>
+      </c>
+      <c r="B41" s="38" t="s">
+        <v>3733</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4112</v>
+      </c>
       <c r="G41" s="8" t="s">
         <v>68</v>
       </c>
@@ -13881,7 +13939,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B15" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Normal,Unit,Check2Option,Option2Check,ID"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13894,12 +13952,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M1251"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -52531,14 +52589,14 @@
       <c r="M1251" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="F615">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND(SUBSTITUTE(C615," ","")&lt;&gt;SUBSTITUTE(F615," ",""),E615&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Normal,Unit,Check2Option,Option2Check,ID,Date,Duration,Swap,Add,Copy,Multiply"</formula1>
     </dataValidation>
   </dataValidations>
@@ -52551,7 +52609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
@@ -52614,7 +52672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -52700,11 +52758,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52769,6 +52827,14 @@
         <v>40</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4106</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>3733</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
